--- a/Python/Video Analysis Task/Results/Features Enriched.xlsx
+++ b/Python/Video Analysis Task/Results/Features Enriched.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eilon.eilstein\Desktop\Eilon\GitHub\My-Projects\Python\Video Analysis Task\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="24">
   <si>
     <t>video_id</t>
   </si>
@@ -69,15 +74,33 @@
   <si>
     <t>english</t>
   </si>
+  <si>
+    <t>Final Class</t>
+  </si>
+  <si>
+    <t>Top X</t>
+  </si>
+  <si>
+    <t>Bottom Y</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>MIDDLE</t>
+  </si>
+  <si>
+    <t>BOTTOM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +116,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,27 +181,1116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="פלט" xfId="2" builtinId="21"/>
+    <cellStyle name="קלט" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BOTTOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-961F-4955-BD9E-BA47998FBB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MIDDLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-961F-4955-BD9E-BA47998FBB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-961F-4955-BD9E-BA47998FBB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="418448632"/>
+        <c:axId val="418449616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="418448632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="418449616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418449616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="418448632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="0.24299832312627584"/>
+          <c:w val="0.38367852752583143"/>
+          <c:h val="0.51400335374744832"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="תרשים 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -187,7 +1332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +1364,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,6 +1399,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,14 +1575,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.88671875" style="5"/>
+    <col min="19" max="19" width="8.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="8.88671875" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,20 +1639,29 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>109.975</v>
+        <v>109.97499999999999</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -516,20 +1695,30 @@
       <c r="K2">
         <v>2</v>
       </c>
-      <c r="L2">
-        <v>0.9444444444444444</v>
+      <c r="L2" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
-      <c r="N2">
-        <v>0.3757317573346148</v>
+      <c r="N2" s="8">
+        <v>0.37573175733461478</v>
       </c>
       <c r="O2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="str">
+        <f>IF(AND(G2&lt;= $R$2, M2&lt;=$R$2,O2&lt;=$R$2), "TOP", IF(AND(G2&lt;=$S$2,M2&lt;=$S$2,O2&lt;=$S$2),"MIDDLE","BOTTOM"))</f>
+        <v>TOP</v>
+      </c>
+      <c r="R2" s="4">
+        <v>35</v>
+      </c>
+      <c r="S2" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -552,7 +1741,7 @@
         <v>79</v>
       </c>
       <c r="H3">
-        <v>51.78991596638655</v>
+        <v>51.789915966386552</v>
       </c>
       <c r="I3">
         <v>78</v>
@@ -563,20 +1752,31 @@
       <c r="K3">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="8">
         <v>0</v>
       </c>
       <c r="M3">
         <v>23</v>
       </c>
-      <c r="N3">
-        <v>-0.321199516098112</v>
+      <c r="N3" s="8">
+        <v>-0.32119951609811198</v>
       </c>
       <c r="O3">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:R66" si="0">IF(AND(G3&lt;= $R$2, M3&lt;=$R$2,O3&lt;=$R$2), "TOP", IF(AND(G3&lt;=$S$2,M3&lt;=$S$2,O3&lt;=$S$2),"MIDDLE","BOTTOM"))</f>
+        <v>BOTTOM</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="6">
+        <f>COUNTIF($P$2:$P$101,R3)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -610,20 +1810,31 @@
       <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="8">
         <v>0</v>
       </c>
       <c r="M4">
         <v>23</v>
       </c>
-      <c r="N4">
-        <v>-0.6268154713312453</v>
+      <c r="N4" s="8">
+        <v>-0.62681547133124527</v>
       </c>
       <c r="O4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" ref="S4:S5" si="1">COUNTIF($P$2:$P$101,R4)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -657,20 +1868,31 @@
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>0.9444444444444444</v>
+      <c r="L5" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5">
-        <v>0.6797742525564681</v>
+      <c r="N5" s="8">
+        <v>0.67977425255646806</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -704,20 +1926,24 @@
       <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>0.9444444444444444</v>
+      <c r="L6" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="8">
         <v>0.2642067619606312</v>
       </c>
       <c r="O6">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -740,7 +1966,7 @@
         <v>97</v>
       </c>
       <c r="H7">
-        <v>33.36974789915966</v>
+        <v>33.369747899159663</v>
       </c>
       <c r="I7">
         <v>98</v>
@@ -751,20 +1977,24 @@
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="8">
         <v>0</v>
       </c>
       <c r="M7">
         <v>23</v>
       </c>
-      <c r="N7">
-        <v>-0.5817366351571679</v>
+      <c r="N7" s="8">
+        <v>-0.58173663515716789</v>
       </c>
       <c r="O7">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -798,20 +2028,24 @@
       <c r="K8">
         <v>2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="8">
         <v>0.5459309722114547</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -834,7 +2068,7 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>93.57142857142857</v>
+        <v>93.571428571428569</v>
       </c>
       <c r="I9">
         <v>30</v>
@@ -845,20 +2079,24 @@
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="L9">
-        <v>0.9444444444444444</v>
+      <c r="L9" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
-      <c r="N9">
-        <v>0.2924796698067235</v>
+      <c r="N9" s="8">
+        <v>0.29247966980672352</v>
       </c>
       <c r="O9">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -881,7 +2119,7 @@
         <v>22</v>
       </c>
       <c r="H10">
-        <v>96.81818181818181</v>
+        <v>96.818181818181813</v>
       </c>
       <c r="I10">
         <v>23</v>
@@ -892,20 +2130,24 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10">
-        <v>0.9444444444444444</v>
+      <c r="L10" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M10">
         <v>2</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="8">
         <v>0.2304655917336676</v>
       </c>
       <c r="O10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -939,20 +2181,24 @@
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>0.8333333333333334</v>
+      <c r="L11" s="8">
+        <v>0.83333333333333337</v>
       </c>
       <c r="M11">
         <v>6</v>
       </c>
-      <c r="N11">
-        <v>0.05844408797365757</v>
+      <c r="N11" s="8">
+        <v>5.844408797365757E-2</v>
       </c>
       <c r="O11">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -975,7 +2221,7 @@
         <v>73</v>
       </c>
       <c r="H12">
-        <v>56.47899159663866</v>
+        <v>56.478991596638657</v>
       </c>
       <c r="I12">
         <v>73</v>
@@ -986,20 +2232,24 @@
       <c r="K12">
         <v>3</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="8">
         <v>0</v>
       </c>
       <c r="M12">
         <v>23</v>
       </c>
-      <c r="N12">
-        <v>-0.2304649836806794</v>
+      <c r="N12" s="8">
+        <v>-0.23046498368067941</v>
       </c>
       <c r="O12">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1033,20 +2283,24 @@
       <c r="K13">
         <v>2</v>
       </c>
-      <c r="L13">
-        <v>0.4210526315789473</v>
+      <c r="L13" s="8">
+        <v>0.42105263157894729</v>
       </c>
       <c r="M13">
         <v>15</v>
       </c>
-      <c r="N13">
-        <v>-0.0905476831450034</v>
+      <c r="N13" s="8">
+        <v>-9.0547683145003402E-2</v>
       </c>
       <c r="O13">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1069,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="H14">
-        <v>101.9745762711864</v>
+        <v>101.97457627118639</v>
       </c>
       <c r="I14">
         <v>18</v>
@@ -1080,20 +2334,24 @@
       <c r="K14">
         <v>4</v>
       </c>
-      <c r="L14">
-        <v>0.9444444444444444</v>
+      <c r="L14" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
-      <c r="N14">
-        <v>0.2636991745311368</v>
+      <c r="N14" s="8">
+        <v>0.26369917453113678</v>
       </c>
       <c r="O14">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1127,20 +2385,24 @@
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
+      <c r="L15" s="8">
+        <v>0.33333333333333331</v>
       </c>
       <c r="M15">
         <v>16</v>
       </c>
-      <c r="N15">
-        <v>-0.05336395945463531</v>
+      <c r="N15" s="8">
+        <v>-5.3363959454635311E-2</v>
       </c>
       <c r="O15">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1163,7 +2425,7 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>91.90000000000001</v>
+        <v>91.9</v>
       </c>
       <c r="I16">
         <v>31</v>
@@ -1174,20 +2436,24 @@
       <c r="K16">
         <v>2</v>
       </c>
-      <c r="L16">
-        <v>0.8888888888888888</v>
+      <c r="L16" s="8">
+        <v>0.88888888888888884</v>
       </c>
       <c r="M16">
         <v>4</v>
       </c>
-      <c r="N16">
-        <v>0.4017670269494927</v>
+      <c r="N16" s="8">
+        <v>0.40176702694949268</v>
       </c>
       <c r="O16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1210,7 +2476,7 @@
         <v>41</v>
       </c>
       <c r="H17">
-        <v>82.71794871794872</v>
+        <v>82.717948717948715</v>
       </c>
       <c r="I17">
         <v>40</v>
@@ -1221,20 +2487,24 @@
       <c r="K17">
         <v>5</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="8">
         <v>0.5</v>
       </c>
       <c r="M17">
         <v>13</v>
       </c>
-      <c r="N17">
-        <v>0.01334421387885614</v>
+      <c r="N17" s="8">
+        <v>1.334421387885614E-2</v>
       </c>
       <c r="O17">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1257,7 +2527,7 @@
         <v>24</v>
       </c>
       <c r="H18">
-        <v>95.46666666666667</v>
+        <v>95.466666666666669</v>
       </c>
       <c r="I18">
         <v>26</v>
@@ -1268,20 +2538,24 @@
       <c r="K18">
         <v>2</v>
       </c>
-      <c r="L18">
-        <v>0.9444444444444444</v>
+      <c r="L18" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M18">
         <v>2</v>
       </c>
-      <c r="N18">
-        <v>0.2114135501016682</v>
+      <c r="N18" s="8">
+        <v>0.21141355010166821</v>
       </c>
       <c r="O18">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1315,20 +2589,24 @@
       <c r="K19">
         <v>5</v>
       </c>
-      <c r="L19">
-        <v>0.8421052631578947</v>
+      <c r="L19" s="8">
+        <v>0.84210526315789469</v>
       </c>
       <c r="M19">
         <v>5</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="8">
         <v>0.2207234608633005</v>
       </c>
       <c r="O19">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1351,7 +2629,7 @@
         <v>61</v>
       </c>
       <c r="H20">
-        <v>65.94166666666666</v>
+        <v>65.941666666666663</v>
       </c>
       <c r="I20">
         <v>61</v>
@@ -1362,20 +2640,24 @@
       <c r="K20">
         <v>2</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="8">
         <v>0.1111111111111111</v>
       </c>
       <c r="M20">
         <v>20</v>
       </c>
-      <c r="N20">
-        <v>-0.09522901536769372</v>
+      <c r="N20" s="8">
+        <v>-9.5229015367693723E-2</v>
       </c>
       <c r="O20">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1409,20 +2691,24 @@
       <c r="K21">
         <v>4</v>
       </c>
-      <c r="L21">
-        <v>0.8947368421052632</v>
+      <c r="L21" s="8">
+        <v>0.89473684210526316</v>
       </c>
       <c r="M21">
         <v>3</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="8">
         <v>0.1021587357256773</v>
       </c>
       <c r="O21">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1456,20 +2742,24 @@
       <c r="K22">
         <v>2</v>
       </c>
-      <c r="L22">
-        <v>0.9444444444444444</v>
+      <c r="L22" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M22">
         <v>2</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="8">
         <v>0.2449149633887174</v>
       </c>
       <c r="O22">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1492,7 +2782,7 @@
         <v>42</v>
       </c>
       <c r="H23">
-        <v>79.09090909090909</v>
+        <v>79.090909090909093</v>
       </c>
       <c r="I23">
         <v>45</v>
@@ -1503,20 +2793,24 @@
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23">
-        <v>0.8888888888888888</v>
+      <c r="L23" s="8">
+        <v>0.88888888888888884</v>
       </c>
       <c r="M23">
         <v>4</v>
       </c>
-      <c r="N23">
-        <v>0.1455518536583301</v>
+      <c r="N23" s="8">
+        <v>0.14555185365833009</v>
       </c>
       <c r="O23">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1539,7 +2833,7 @@
         <v>68</v>
       </c>
       <c r="H24">
-        <v>62.66666666666666</v>
+        <v>62.666666666666657</v>
       </c>
       <c r="I24">
         <v>66</v>
@@ -1550,20 +2844,24 @@
       <c r="K24">
         <v>5</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="8">
         <v>0.5</v>
       </c>
       <c r="M24">
         <v>13</v>
       </c>
-      <c r="N24">
-        <v>-0.01949228161082361</v>
+      <c r="N24" s="8">
+        <v>-1.9492281610823611E-2</v>
       </c>
       <c r="O24">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1586,7 +2884,7 @@
         <v>26</v>
       </c>
       <c r="H25">
-        <v>96.15254237288136</v>
+        <v>96.152542372881356</v>
       </c>
       <c r="I25">
         <v>24</v>
@@ -1597,20 +2895,24 @@
       <c r="K25">
         <v>4</v>
       </c>
-      <c r="L25">
-        <v>0.8888888888888888</v>
+      <c r="L25" s="8">
+        <v>0.88888888888888884</v>
       </c>
       <c r="M25">
         <v>4</v>
       </c>
-      <c r="N25">
-        <v>0.3734154585129252</v>
+      <c r="N25" s="8">
+        <v>0.37341545851292518</v>
       </c>
       <c r="O25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1633,7 +2935,7 @@
         <v>92</v>
       </c>
       <c r="H26">
-        <v>36.63025210084034</v>
+        <v>36.630252100840337</v>
       </c>
       <c r="I26">
         <v>92</v>
@@ -1644,20 +2946,24 @@
       <c r="K26">
         <v>3</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="8">
         <v>0</v>
       </c>
       <c r="M26">
         <v>23</v>
       </c>
-      <c r="N26">
-        <v>-0.5161604359850931</v>
+      <c r="N26" s="8">
+        <v>-0.51616043598509309</v>
       </c>
       <c r="O26">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1680,7 +2986,7 @@
         <v>48</v>
       </c>
       <c r="H27">
-        <v>76.35833333333333</v>
+        <v>76.358333333333334</v>
       </c>
       <c r="I27">
         <v>49</v>
@@ -1691,20 +2997,24 @@
       <c r="K27">
         <v>2</v>
       </c>
-      <c r="L27">
-        <v>0.8888888888888888</v>
+      <c r="L27" s="8">
+        <v>0.88888888888888884</v>
       </c>
       <c r="M27">
         <v>4</v>
       </c>
-      <c r="N27">
-        <v>0.1579300282406614</v>
+      <c r="N27" s="8">
+        <v>0.15793002824066141</v>
       </c>
       <c r="O27">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1727,7 +3037,7 @@
         <v>98</v>
       </c>
       <c r="H28">
-        <v>33.72413793103448</v>
+        <v>33.724137931034477</v>
       </c>
       <c r="I28">
         <v>97</v>
@@ -1738,20 +3048,24 @@
       <c r="K28">
         <v>6</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="8">
         <v>0</v>
       </c>
       <c r="M28">
         <v>23</v>
       </c>
-      <c r="N28">
-        <v>-0.5830506772694715</v>
+      <c r="N28" s="8">
+        <v>-0.58305067726947146</v>
       </c>
       <c r="O28">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1774,7 +3088,7 @@
         <v>83</v>
       </c>
       <c r="H29">
-        <v>48.31623931623932</v>
+        <v>48.316239316239319</v>
       </c>
       <c r="I29">
         <v>82</v>
@@ -1785,20 +3099,24 @@
       <c r="K29">
         <v>5</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="8">
         <v>0</v>
       </c>
       <c r="M29">
         <v>23</v>
       </c>
-      <c r="N29">
-        <v>-0.4018970006669084</v>
+      <c r="N29" s="8">
+        <v>-0.40189700066690842</v>
       </c>
       <c r="O29">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1821,7 +3139,7 @@
         <v>84</v>
       </c>
       <c r="H30">
-        <v>46.68067226890756</v>
+        <v>46.680672268907557</v>
       </c>
       <c r="I30">
         <v>84</v>
@@ -1832,20 +3150,24 @@
       <c r="K30">
         <v>3</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="8">
         <v>0</v>
       </c>
       <c r="M30">
         <v>23</v>
       </c>
-      <c r="N30">
-        <v>-0.3349658339971778</v>
+      <c r="N30" s="8">
+        <v>-0.33496583399717778</v>
       </c>
       <c r="O30">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1868,7 +3190,7 @@
         <v>90</v>
       </c>
       <c r="H31">
-        <v>39.04237288135593</v>
+        <v>39.042372881355931</v>
       </c>
       <c r="I31">
         <v>90</v>
@@ -1879,20 +3201,24 @@
       <c r="K31">
         <v>4</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="8">
         <v>0</v>
       </c>
       <c r="M31">
         <v>23</v>
       </c>
-      <c r="N31">
-        <v>-0.4732088214760174</v>
+      <c r="N31" s="8">
+        <v>-0.47320882147601739</v>
       </c>
       <c r="O31">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1915,7 +3241,7 @@
         <v>72</v>
       </c>
       <c r="H32">
-        <v>56.80672268907563</v>
+        <v>56.806722689075627</v>
       </c>
       <c r="I32">
         <v>72</v>
@@ -1926,20 +3252,24 @@
       <c r="K32">
         <v>3</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="8">
         <v>0</v>
       </c>
       <c r="M32">
         <v>23</v>
       </c>
-      <c r="N32">
-        <v>-0.2620465577157295</v>
+      <c r="N32" s="8">
+        <v>-0.26204655771572949</v>
       </c>
       <c r="O32">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1962,7 +3292,7 @@
         <v>94</v>
       </c>
       <c r="H33">
-        <v>35.29661016949152</v>
+        <v>35.296610169491522</v>
       </c>
       <c r="I33">
         <v>94</v>
@@ -1973,20 +3303,24 @@
       <c r="K33">
         <v>4</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="8">
         <v>0</v>
       </c>
       <c r="M33">
         <v>23</v>
       </c>
-      <c r="N33">
-        <v>-0.5702447689387314</v>
+      <c r="N33" s="8">
+        <v>-0.57024476893873144</v>
       </c>
       <c r="O33">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2009,7 +3343,7 @@
         <v>49</v>
       </c>
       <c r="H34">
-        <v>76.58823529411765</v>
+        <v>76.588235294117652</v>
       </c>
       <c r="I34">
         <v>47</v>
@@ -2020,20 +3354,24 @@
       <c r="K34">
         <v>3</v>
       </c>
-      <c r="L34">
-        <v>0.7777777777777778</v>
+      <c r="L34" s="8">
+        <v>0.77777777777777779</v>
       </c>
       <c r="M34">
         <v>8</v>
       </c>
-      <c r="N34">
-        <v>0.09811113366393304</v>
+      <c r="N34" s="8">
+        <v>9.8111133663933037E-2</v>
       </c>
       <c r="O34">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2067,20 +3405,24 @@
       <c r="K35">
         <v>3</v>
       </c>
-      <c r="L35">
-        <v>0.9444444444444444</v>
+      <c r="L35" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M35">
         <v>2</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="8">
         <v>0.490444880918457</v>
       </c>
       <c r="O35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2114,20 +3456,24 @@
       <c r="K36">
         <v>2</v>
       </c>
-      <c r="L36">
-        <v>0.6842105263157895</v>
+      <c r="L36" s="8">
+        <v>0.68421052631578949</v>
       </c>
       <c r="M36">
         <v>10</v>
       </c>
-      <c r="N36">
-        <v>-0.02650129691752709</v>
+      <c r="N36" s="8">
+        <v>-2.650129691752709E-2</v>
       </c>
       <c r="O36">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2150,7 +3496,7 @@
         <v>40</v>
       </c>
       <c r="H37">
-        <v>82.55932203389831</v>
+        <v>82.559322033898312</v>
       </c>
       <c r="I37">
         <v>41</v>
@@ -2161,20 +3507,24 @@
       <c r="K37">
         <v>4</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="8">
         <v>1</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
-      <c r="N37">
-        <v>0.3159735188341938</v>
+      <c r="N37" s="8">
+        <v>0.31597351883419378</v>
       </c>
       <c r="O37">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2208,20 +3558,24 @@
       <c r="K38">
         <v>2</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="8">
         <v>0</v>
       </c>
       <c r="M38">
         <v>23</v>
       </c>
-      <c r="N38">
-        <v>-0.3462638963142285</v>
+      <c r="N38" s="8">
+        <v>-0.34626389631422849</v>
       </c>
       <c r="O38">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2244,7 +3598,7 @@
         <v>76</v>
       </c>
       <c r="H39">
-        <v>52.73553719008265</v>
+        <v>52.735537190082653</v>
       </c>
       <c r="I39">
         <v>77</v>
@@ -2255,20 +3609,24 @@
       <c r="K39">
         <v>1</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="8">
         <v>0</v>
       </c>
       <c r="M39">
         <v>23</v>
       </c>
-      <c r="N39">
-        <v>-0.3579903087652563</v>
+      <c r="N39" s="8">
+        <v>-0.35799030876525628</v>
       </c>
       <c r="O39">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2302,20 +3660,24 @@
       <c r="K40">
         <v>2</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="8">
         <v>0</v>
       </c>
       <c r="M40">
         <v>23</v>
       </c>
-      <c r="N40">
-        <v>-0.1722135677167077</v>
+      <c r="N40" s="8">
+        <v>-0.17221356771670771</v>
       </c>
       <c r="O40">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2349,20 +3711,24 @@
       <c r="K41">
         <v>3</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="8">
         <v>0</v>
       </c>
       <c r="M41">
         <v>23</v>
       </c>
-      <c r="N41">
-        <v>-0.2897882787681901</v>
+      <c r="N41" s="8">
+        <v>-0.28978827876819008</v>
       </c>
       <c r="O41">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2385,7 +3751,7 @@
         <v>66</v>
       </c>
       <c r="H42">
-        <v>61.525</v>
+        <v>61.524999999999999</v>
       </c>
       <c r="I42">
         <v>68</v>
@@ -2396,20 +3762,24 @@
       <c r="K42">
         <v>2</v>
       </c>
-      <c r="L42">
-        <v>0.2222222222222222</v>
+      <c r="L42" s="8">
+        <v>0.22222222222222221</v>
       </c>
       <c r="M42">
         <v>18</v>
       </c>
-      <c r="N42">
-        <v>-0.07659414393877861</v>
+      <c r="N42" s="8">
+        <v>-7.6594143938778614E-2</v>
       </c>
       <c r="O42">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2443,20 +3813,24 @@
       <c r="K43">
         <v>2</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="8">
         <v>0</v>
       </c>
       <c r="M43">
         <v>23</v>
       </c>
-      <c r="N43">
-        <v>-0.3986584533973832</v>
+      <c r="N43" s="8">
+        <v>-0.39865845339738321</v>
       </c>
       <c r="O43">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="P43" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2479,7 +3853,7 @@
         <v>38</v>
       </c>
       <c r="H44">
-        <v>84.04237288135593</v>
+        <v>84.042372881355931</v>
       </c>
       <c r="I44">
         <v>37</v>
@@ -2490,20 +3864,24 @@
       <c r="K44">
         <v>4</v>
       </c>
-      <c r="L44">
-        <v>0.5555555555555556</v>
+      <c r="L44" s="8">
+        <v>0.55555555555555558</v>
       </c>
       <c r="M44">
         <v>12</v>
       </c>
-      <c r="N44">
-        <v>0.03014313470729339</v>
+      <c r="N44" s="8">
+        <v>3.0143134707293389E-2</v>
       </c>
       <c r="O44">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2537,20 +3915,24 @@
       <c r="K45">
         <v>2</v>
       </c>
-      <c r="L45">
-        <v>0.9444444444444444</v>
+      <c r="L45" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M45">
         <v>2</v>
       </c>
-      <c r="N45">
-        <v>0.5201629450323413</v>
+      <c r="N45" s="8">
+        <v>0.52016294503234128</v>
       </c>
       <c r="O45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="P45" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2573,7 +3955,7 @@
         <v>29</v>
       </c>
       <c r="H46">
-        <v>95.4017094017094</v>
+        <v>95.401709401709397</v>
       </c>
       <c r="I46">
         <v>27</v>
@@ -2584,20 +3966,24 @@
       <c r="K46">
         <v>5</v>
       </c>
-      <c r="L46">
-        <v>0.8333333333333334</v>
+      <c r="L46" s="8">
+        <v>0.83333333333333337</v>
       </c>
       <c r="M46">
         <v>6</v>
       </c>
-      <c r="N46">
-        <v>0.1854078807499824</v>
+      <c r="N46" s="8">
+        <v>0.18540788074998241</v>
       </c>
       <c r="O46">
         <v>34</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2620,7 +4006,7 @@
         <v>33</v>
       </c>
       <c r="H47">
-        <v>89.40833333333333</v>
+        <v>89.408333333333331</v>
       </c>
       <c r="I47">
         <v>33</v>
@@ -2631,20 +4017,24 @@
       <c r="K47">
         <v>2</v>
       </c>
-      <c r="L47">
-        <v>0.8888888888888888</v>
+      <c r="L47" s="8">
+        <v>0.88888888888888884</v>
       </c>
       <c r="M47">
         <v>4</v>
       </c>
-      <c r="N47">
-        <v>0.1214278767427232</v>
+      <c r="N47" s="8">
+        <v>0.12142787674272321</v>
       </c>
       <c r="O47">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2667,7 +4057,7 @@
         <v>95</v>
       </c>
       <c r="H48">
-        <v>34.73109243697479</v>
+        <v>34.731092436974791</v>
       </c>
       <c r="I48">
         <v>95</v>
@@ -2678,20 +4068,24 @@
       <c r="K48">
         <v>3</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="8">
         <v>0</v>
       </c>
       <c r="M48">
         <v>23</v>
       </c>
-      <c r="N48">
-        <v>-0.529608131816016</v>
+      <c r="N48" s="8">
+        <v>-0.52960813181601596</v>
       </c>
       <c r="O48">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2725,20 +4119,24 @@
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="L49">
-        <v>0.1666666666666667</v>
+      <c r="L49" s="8">
+        <v>0.16666666666666671</v>
       </c>
       <c r="M49">
         <v>19</v>
       </c>
-      <c r="N49">
-        <v>-0.05625499025171624</v>
+      <c r="N49" s="8">
+        <v>-5.6254990251716243E-2</v>
       </c>
       <c r="O49">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="P49" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2761,7 +4159,7 @@
         <v>63</v>
       </c>
       <c r="H50">
-        <v>65.43220338983051</v>
+        <v>65.432203389830505</v>
       </c>
       <c r="I50">
         <v>62</v>
@@ -2772,20 +4170,24 @@
       <c r="K50">
         <v>4</v>
       </c>
-      <c r="L50">
-        <v>0.4444444444444444</v>
+      <c r="L50" s="8">
+        <v>0.44444444444444442</v>
       </c>
       <c r="M50">
         <v>14</v>
       </c>
-      <c r="N50">
-        <v>-0.06707584015982489</v>
+      <c r="N50" s="8">
+        <v>-6.7075840159824887E-2</v>
       </c>
       <c r="O50">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2808,7 +4210,7 @@
         <v>32</v>
       </c>
       <c r="H51">
-        <v>90.90000000000001</v>
+        <v>90.9</v>
       </c>
       <c r="I51">
         <v>32</v>
@@ -2819,20 +4221,24 @@
       <c r="K51">
         <v>2</v>
       </c>
-      <c r="L51">
-        <v>0.8947368421052632</v>
+      <c r="L51" s="8">
+        <v>0.89473684210526316</v>
       </c>
       <c r="M51">
         <v>3</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="8">
         <v>0.1122931093492113</v>
       </c>
       <c r="O51">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="P51" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2866,20 +4272,24 @@
       <c r="K52">
         <v>4</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="8">
         <v>1</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
-      <c r="N52">
-        <v>0.4689088690392048</v>
+      <c r="N52" s="8">
+        <v>0.46890886903920481</v>
       </c>
       <c r="O52">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="P52" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2913,20 +4323,24 @@
       <c r="K53">
         <v>4</v>
       </c>
-      <c r="L53">
-        <v>0.9444444444444444</v>
+      <c r="L53" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
-      <c r="N53">
-        <v>0.7924633908229273</v>
+      <c r="N53" s="8">
+        <v>0.79246339082292727</v>
       </c>
       <c r="O53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="P53" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2949,7 +4363,7 @@
         <v>43</v>
       </c>
       <c r="H54">
-        <v>80.23529411764706</v>
+        <v>80.235294117647058</v>
       </c>
       <c r="I54">
         <v>43</v>
@@ -2960,20 +4374,24 @@
       <c r="K54">
         <v>3</v>
       </c>
-      <c r="L54">
-        <v>0.5789473684210527</v>
+      <c r="L54" s="8">
+        <v>0.57894736842105265</v>
       </c>
       <c r="M54">
         <v>11</v>
       </c>
-      <c r="N54">
-        <v>-0.05137455239665221</v>
+      <c r="N54" s="8">
+        <v>-5.1374552396652208E-2</v>
       </c>
       <c r="O54">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="P54" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2996,7 +4414,7 @@
         <v>13</v>
       </c>
       <c r="H55">
-        <v>109.9565217391304</v>
+        <v>109.95652173913039</v>
       </c>
       <c r="I55">
         <v>11</v>
@@ -3007,20 +4425,24 @@
       <c r="K55">
         <v>7</v>
       </c>
-      <c r="L55">
-        <v>0.9444444444444444</v>
+      <c r="L55" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M55">
         <v>2</v>
       </c>
-      <c r="N55">
-        <v>0.3609081641294032</v>
+      <c r="N55" s="8">
+        <v>0.36090816412940319</v>
       </c>
       <c r="O55">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="P55" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3043,7 +4465,7 @@
         <v>71</v>
       </c>
       <c r="H56">
-        <v>57.36134453781513</v>
+        <v>57.361344537815128</v>
       </c>
       <c r="I56">
         <v>71</v>
@@ -3054,20 +4476,24 @@
       <c r="K56">
         <v>3</v>
       </c>
-      <c r="L56">
-        <v>0.05555555555555555</v>
+      <c r="L56" s="8">
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="M56">
         <v>22</v>
       </c>
-      <c r="N56">
-        <v>-0.2194294474188078</v>
+      <c r="N56" s="8">
+        <v>-0.21942944741880779</v>
       </c>
       <c r="O56">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="P56" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3090,7 +4516,7 @@
         <v>78</v>
       </c>
       <c r="H57">
-        <v>51.475</v>
+        <v>51.475000000000001</v>
       </c>
       <c r="I57">
         <v>79</v>
@@ -3101,20 +4527,24 @@
       <c r="K57">
         <v>2</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="8">
         <v>0</v>
       </c>
       <c r="M57">
         <v>23</v>
       </c>
-      <c r="N57">
-        <v>-0.3215185592662473</v>
+      <c r="N57" s="8">
+        <v>-0.32151855926624728</v>
       </c>
       <c r="O57">
         <v>79</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="P57" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3137,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>131.4793388429752</v>
+        <v>131.47933884297521</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -3148,20 +4578,24 @@
       <c r="K58">
         <v>1</v>
       </c>
-      <c r="L58">
-        <v>0.9444444444444444</v>
+      <c r="L58" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M58">
         <v>2</v>
       </c>
-      <c r="N58">
-        <v>0.7338073181288851</v>
+      <c r="N58" s="8">
+        <v>0.73380731812888511</v>
       </c>
       <c r="O58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="P58" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3184,7 +4618,7 @@
         <v>67</v>
       </c>
       <c r="H59">
-        <v>62.96581196581197</v>
+        <v>62.965811965811973</v>
       </c>
       <c r="I59">
         <v>65</v>
@@ -3195,20 +4629,24 @@
       <c r="K59">
         <v>5</v>
       </c>
-      <c r="L59">
-        <v>0.05555555555555555</v>
+      <c r="L59" s="8">
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="M59">
         <v>22</v>
       </c>
-      <c r="N59">
-        <v>-0.1881094200025568</v>
+      <c r="N59" s="8">
+        <v>-0.18810942000255679</v>
       </c>
       <c r="O59">
         <v>68</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="P59" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3231,7 +4669,7 @@
         <v>23</v>
       </c>
       <c r="H60">
-        <v>98.57264957264957</v>
+        <v>98.572649572649567</v>
       </c>
       <c r="I60">
         <v>22</v>
@@ -3242,20 +4680,24 @@
       <c r="K60">
         <v>5</v>
       </c>
-      <c r="L60">
-        <v>0.9444444444444444</v>
+      <c r="L60" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M60">
         <v>2</v>
       </c>
-      <c r="N60">
-        <v>0.319022949719666</v>
+      <c r="N60" s="8">
+        <v>0.31902294971966599</v>
       </c>
       <c r="O60">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="P60" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3289,20 +4731,24 @@
       <c r="K61">
         <v>3</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="8">
         <v>0</v>
       </c>
       <c r="M61">
         <v>23</v>
       </c>
-      <c r="N61">
-        <v>-0.2705912715737634</v>
+      <c r="N61" s="8">
+        <v>-0.27059127157376339</v>
       </c>
       <c r="O61">
         <v>75</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="P61" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3325,7 +4771,7 @@
         <v>57</v>
       </c>
       <c r="H62">
-        <v>72.09243697478992</v>
+        <v>72.092436974789919</v>
       </c>
       <c r="I62">
         <v>57</v>
@@ -3336,20 +4782,24 @@
       <c r="K62">
         <v>3</v>
       </c>
-      <c r="L62">
-        <v>0.9444444444444444</v>
+      <c r="L62" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M62">
         <v>2</v>
       </c>
-      <c r="N62">
-        <v>0.09493138505450076</v>
+      <c r="N62" s="8">
+        <v>9.4931385054500758E-2</v>
       </c>
       <c r="O62">
         <v>41</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="P62" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3372,7 +4822,7 @@
         <v>21</v>
       </c>
       <c r="H63">
-        <v>98.80165289256199</v>
+        <v>98.801652892561989</v>
       </c>
       <c r="I63">
         <v>21</v>
@@ -3383,20 +4833,24 @@
       <c r="K63">
         <v>1</v>
       </c>
-      <c r="L63">
-        <v>0.9444444444444444</v>
+      <c r="L63" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M63">
         <v>2</v>
       </c>
-      <c r="N63">
-        <v>0.4943234836184225</v>
+      <c r="N63" s="8">
+        <v>0.49432348361842249</v>
       </c>
       <c r="O63">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="P63" t="str">
+        <f t="shared" si="0"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3419,7 +4873,7 @@
         <v>62</v>
       </c>
       <c r="H64">
-        <v>65.09243697478992</v>
+        <v>65.092436974789919</v>
       </c>
       <c r="I64">
         <v>63</v>
@@ -3430,20 +4884,24 @@
       <c r="K64">
         <v>3</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="8">
         <v>0.1111111111111111</v>
       </c>
       <c r="M64">
         <v>20</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="8">
         <v>-0.1101448499028387</v>
       </c>
       <c r="O64">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="P64" t="str">
+        <f t="shared" si="0"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3466,7 +4924,7 @@
         <v>93</v>
       </c>
       <c r="H65">
-        <v>35.32773109243698</v>
+        <v>35.327731092436977</v>
       </c>
       <c r="I65">
         <v>93</v>
@@ -3477,20 +4935,24 @@
       <c r="K65">
         <v>3</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="8">
         <v>0</v>
       </c>
       <c r="M65">
         <v>23</v>
       </c>
-      <c r="N65">
-        <v>-0.5545605836747002</v>
+      <c r="N65" s="8">
+        <v>-0.55456058367470018</v>
       </c>
       <c r="O65">
         <v>94</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="P65" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3524,20 +4986,24 @@
       <c r="K66">
         <v>2</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="8">
         <v>0</v>
       </c>
       <c r="M66">
         <v>23</v>
       </c>
-      <c r="N66">
-        <v>-0.4437586361813339</v>
+      <c r="N66" s="8">
+        <v>-0.44375863618133388</v>
       </c>
       <c r="O66">
         <v>87</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="P66" t="str">
+        <f t="shared" si="0"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3560,7 +5026,7 @@
         <v>51</v>
       </c>
       <c r="H67">
-        <v>74.6218487394958</v>
+        <v>74.621848739495803</v>
       </c>
       <c r="I67">
         <v>51</v>
@@ -3571,20 +5037,24 @@
       <c r="K67">
         <v>3</v>
       </c>
-      <c r="L67">
-        <v>0.3333333333333333</v>
+      <c r="L67" s="8">
+        <v>0.33333333333333331</v>
       </c>
       <c r="M67">
         <v>16</v>
       </c>
-      <c r="N67">
-        <v>-0.05854016600418813</v>
+      <c r="N67" s="8">
+        <v>-5.8540166004188127E-2</v>
       </c>
       <c r="O67">
         <v>58</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="P67" t="str">
+        <f t="shared" ref="P67:P101" si="2">IF(AND(G67&lt;= $R$2, M67&lt;=$R$2,O67&lt;=$R$2), "TOP", IF(AND(G67&lt;=$S$2,M67&lt;=$S$2,O67&lt;=$S$2),"MIDDLE","BOTTOM"))</f>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3607,7 +5077,7 @@
         <v>96</v>
       </c>
       <c r="H68">
-        <v>33.84166666666667</v>
+        <v>33.841666666666669</v>
       </c>
       <c r="I68">
         <v>96</v>
@@ -3618,20 +5088,24 @@
       <c r="K68">
         <v>2</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="8">
         <v>0</v>
       </c>
       <c r="M68">
         <v>23</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="8">
         <v>-0.5805903024060125</v>
       </c>
       <c r="O68">
         <v>96</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68" t="str">
+        <f t="shared" si="2"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3654,7 +5128,7 @@
         <v>88</v>
       </c>
       <c r="H69">
-        <v>45.11764705882353</v>
+        <v>45.117647058823529</v>
       </c>
       <c r="I69">
         <v>86</v>
@@ -3665,20 +5139,24 @@
       <c r="K69">
         <v>3</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="8">
         <v>0</v>
       </c>
       <c r="M69">
         <v>23</v>
       </c>
-      <c r="N69">
-        <v>-0.4262106128145061</v>
+      <c r="N69" s="8">
+        <v>-0.42621061281450612</v>
       </c>
       <c r="O69">
         <v>86</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69" t="str">
+        <f t="shared" si="2"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3701,7 +5179,7 @@
         <v>18</v>
       </c>
       <c r="H70">
-        <v>101.2666666666667</v>
+        <v>101.26666666666669</v>
       </c>
       <c r="I70">
         <v>20</v>
@@ -3712,20 +5190,24 @@
       <c r="K70">
         <v>2</v>
       </c>
-      <c r="L70">
-        <v>0.9444444444444444</v>
+      <c r="L70" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M70">
         <v>2</v>
       </c>
-      <c r="N70">
-        <v>0.27125331598396</v>
+      <c r="N70" s="8">
+        <v>0.27125331598396002</v>
       </c>
       <c r="O70">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="P70" t="str">
+        <f t="shared" si="2"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3748,7 +5230,7 @@
         <v>25</v>
       </c>
       <c r="H71">
-        <v>95.80672268907563</v>
+        <v>95.806722689075627</v>
       </c>
       <c r="I71">
         <v>25</v>
@@ -3759,20 +5241,24 @@
       <c r="K71">
         <v>3</v>
       </c>
-      <c r="L71">
-        <v>0.9444444444444444</v>
+      <c r="L71" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M71">
         <v>2</v>
       </c>
-      <c r="N71">
-        <v>0.2028215830136711</v>
+      <c r="N71" s="8">
+        <v>0.20282158301367109</v>
       </c>
       <c r="O71">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="P71" t="str">
+        <f t="shared" si="2"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3795,7 +5281,7 @@
         <v>89</v>
       </c>
       <c r="H72">
-        <v>44.90756302521008</v>
+        <v>44.907563025210081</v>
       </c>
       <c r="I72">
         <v>89</v>
@@ -3806,20 +5292,24 @@
       <c r="K72">
         <v>3</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="8">
         <v>0</v>
       </c>
       <c r="M72">
         <v>23</v>
       </c>
-      <c r="N72">
-        <v>-0.4481496046404742</v>
+      <c r="N72" s="8">
+        <v>-0.44814960464047421</v>
       </c>
       <c r="O72">
         <v>88</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="P72" t="str">
+        <f t="shared" si="2"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3842,7 +5332,7 @@
         <v>87</v>
       </c>
       <c r="H73">
-        <v>45.08333333333334</v>
+        <v>45.083333333333343</v>
       </c>
       <c r="I73">
         <v>88</v>
@@ -3853,20 +5343,24 @@
       <c r="K73">
         <v>2</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="8">
         <v>0</v>
       </c>
       <c r="M73">
         <v>23</v>
       </c>
-      <c r="N73">
-        <v>-0.4613984800443175</v>
+      <c r="N73" s="8">
+        <v>-0.46139848004431749</v>
       </c>
       <c r="O73">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="P73" t="str">
+        <f t="shared" si="2"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3889,7 +5383,7 @@
         <v>70</v>
       </c>
       <c r="H74">
-        <v>61.44444444444444</v>
+        <v>61.444444444444443</v>
       </c>
       <c r="I74">
         <v>69</v>
@@ -3900,20 +5394,24 @@
       <c r="K74">
         <v>5</v>
       </c>
-      <c r="L74">
-        <v>0.1666666666666667</v>
+      <c r="L74" s="8">
+        <v>0.16666666666666671</v>
       </c>
       <c r="M74">
         <v>19</v>
       </c>
-      <c r="N74">
-        <v>-0.24755205157952</v>
+      <c r="N74" s="8">
+        <v>-0.24755205157952001</v>
       </c>
       <c r="O74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="P74" t="str">
+        <f t="shared" si="2"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3947,20 +5445,24 @@
       <c r="K75">
         <v>5</v>
       </c>
-      <c r="L75">
-        <v>0.9444444444444444</v>
+      <c r="L75" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M75">
         <v>2</v>
       </c>
-      <c r="N75">
-        <v>0.8256165351758186</v>
+      <c r="N75" s="8">
+        <v>0.82561653517581857</v>
       </c>
       <c r="O75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="P75" t="str">
+        <f t="shared" si="2"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3983,7 +5485,7 @@
         <v>36</v>
       </c>
       <c r="H76">
-        <v>86.77777777777777</v>
+        <v>86.777777777777771</v>
       </c>
       <c r="I76">
         <v>36</v>
@@ -3994,20 +5496,24 @@
       <c r="K76">
         <v>5</v>
       </c>
-      <c r="L76">
-        <v>0.8333333333333334</v>
+      <c r="L76" s="8">
+        <v>0.83333333333333337</v>
       </c>
       <c r="M76">
         <v>6</v>
       </c>
-      <c r="N76">
-        <v>0.07814885343853296</v>
+      <c r="N76" s="8">
+        <v>7.8148853438532964E-2</v>
       </c>
       <c r="O76">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="P76" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4030,7 +5536,7 @@
         <v>99</v>
       </c>
       <c r="H77">
-        <v>29.85123966942149</v>
+        <v>29.851239669421489</v>
       </c>
       <c r="I77">
         <v>99</v>
@@ -4041,20 +5547,24 @@
       <c r="K77">
         <v>1</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="8">
         <v>0</v>
       </c>
       <c r="M77">
         <v>23</v>
       </c>
-      <c r="N77">
-        <v>-0.5967993712910781</v>
+      <c r="N77" s="8">
+        <v>-0.59679937129107807</v>
       </c>
       <c r="O77">
         <v>99</v>
       </c>
-    </row>
-    <row r="78" spans="1:15">
+      <c r="P77" t="str">
+        <f t="shared" si="2"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4077,7 +5587,7 @@
         <v>74</v>
       </c>
       <c r="H78">
-        <v>55.88135593220339</v>
+        <v>55.881355932203391</v>
       </c>
       <c r="I78">
         <v>74</v>
@@ -4088,20 +5598,24 @@
       <c r="K78">
         <v>4</v>
       </c>
-      <c r="L78">
-        <v>0.05555555555555555</v>
+      <c r="L78" s="8">
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="M78">
         <v>22</v>
       </c>
-      <c r="N78">
-        <v>-0.3147835794271707</v>
+      <c r="N78" s="8">
+        <v>-0.31478357942717072</v>
       </c>
       <c r="O78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="P78" t="str">
+        <f t="shared" si="2"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4124,7 +5638,7 @@
         <v>65</v>
       </c>
       <c r="H79">
-        <v>61.775</v>
+        <v>61.774999999999999</v>
       </c>
       <c r="I79">
         <v>67</v>
@@ -4135,20 +5649,24 @@
       <c r="K79">
         <v>2</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="8">
         <v>0</v>
       </c>
       <c r="M79">
         <v>23</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="8">
         <v>-0.2160884128031394</v>
       </c>
       <c r="O79">
         <v>69</v>
       </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="P79" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4171,7 +5689,7 @@
         <v>91</v>
       </c>
       <c r="H80">
-        <v>36.90909090909091</v>
+        <v>36.909090909090907</v>
       </c>
       <c r="I80">
         <v>91</v>
@@ -4182,20 +5700,24 @@
       <c r="K80">
         <v>1</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="8">
         <v>0</v>
       </c>
       <c r="M80">
         <v>23</v>
       </c>
-      <c r="N80">
-        <v>-0.527456569894672</v>
+      <c r="N80" s="8">
+        <v>-0.52745656989467204</v>
       </c>
       <c r="O80">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="P80" t="str">
+        <f t="shared" si="2"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4218,7 +5740,7 @@
         <v>64</v>
       </c>
       <c r="H81">
-        <v>64.91525423728814</v>
+        <v>64.915254237288138</v>
       </c>
       <c r="I81">
         <v>64</v>
@@ -4229,20 +5751,24 @@
       <c r="K81">
         <v>4</v>
       </c>
-      <c r="L81">
-        <v>0.05555555555555555</v>
+      <c r="L81" s="8">
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="M81">
         <v>22</v>
       </c>
-      <c r="N81">
-        <v>-0.1660865132268625</v>
+      <c r="N81" s="8">
+        <v>-0.16608651322686249</v>
       </c>
       <c r="O81">
         <v>65</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="P81" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4276,20 +5802,24 @@
       <c r="K82">
         <v>2</v>
       </c>
-      <c r="L82">
-        <v>0.1052631578947368</v>
+      <c r="L82" s="8">
+        <v>0.10526315789473679</v>
       </c>
       <c r="M82">
         <v>21</v>
       </c>
-      <c r="N82">
-        <v>-0.1741184028827358</v>
+      <c r="N82" s="8">
+        <v>-0.17411840288273581</v>
       </c>
       <c r="O82">
         <v>67</v>
       </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="P82" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4323,20 +5853,24 @@
       <c r="K83">
         <v>2</v>
       </c>
-      <c r="L83">
-        <v>0.8947368421052632</v>
+      <c r="L83" s="8">
+        <v>0.89473684210526316</v>
       </c>
       <c r="M83">
         <v>3</v>
       </c>
-      <c r="N83">
-        <v>0.5194114910868283</v>
+      <c r="N83" s="8">
+        <v>0.51941149108682827</v>
       </c>
       <c r="O83">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="P83" t="str">
+        <f t="shared" si="2"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4359,7 +5893,7 @@
         <v>37</v>
       </c>
       <c r="H84">
-        <v>83.11570247933884</v>
+        <v>83.115702479338836</v>
       </c>
       <c r="I84">
         <v>39</v>
@@ -4370,20 +5904,24 @@
       <c r="K84">
         <v>1</v>
       </c>
-      <c r="L84">
-        <v>0.7222222222222222</v>
+      <c r="L84" s="8">
+        <v>0.72222222222222221</v>
       </c>
       <c r="M84">
         <v>9</v>
       </c>
-      <c r="N84">
-        <v>0.04190376890275119</v>
+      <c r="N84" s="8">
+        <v>4.1903768902751187E-2</v>
       </c>
       <c r="O84">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="P84" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4417,20 +5955,24 @@
       <c r="K85">
         <v>4</v>
       </c>
-      <c r="L85">
-        <v>0.9444444444444444</v>
+      <c r="L85" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M85">
         <v>2</v>
       </c>
-      <c r="N85">
-        <v>0.6270217540417471</v>
+      <c r="N85" s="8">
+        <v>0.62702175404174709</v>
       </c>
       <c r="O85">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85" t="str">
+        <f t="shared" si="2"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4453,7 +5995,7 @@
         <v>45</v>
       </c>
       <c r="H86">
-        <v>79.75630252100841</v>
+        <v>79.756302521008408</v>
       </c>
       <c r="I86">
         <v>44</v>
@@ -4464,20 +6006,24 @@
       <c r="K86">
         <v>3</v>
       </c>
-      <c r="L86">
-        <v>0.8333333333333334</v>
+      <c r="L86" s="8">
+        <v>0.83333333333333337</v>
       </c>
       <c r="M86">
         <v>6</v>
       </c>
-      <c r="N86">
-        <v>0.1983872998370625</v>
+      <c r="N86" s="8">
+        <v>0.19838729983706249</v>
       </c>
       <c r="O86">
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="P86" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4511,20 +6057,24 @@
       <c r="K87">
         <v>2</v>
       </c>
-      <c r="L87">
-        <v>0.9444444444444444</v>
+      <c r="L87" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M87">
         <v>2</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="8">
         <v>0.2914868398112398</v>
       </c>
       <c r="O87">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="P87" t="str">
+        <f t="shared" si="2"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4547,7 +6097,7 @@
         <v>55</v>
       </c>
       <c r="H88">
-        <v>73.41525423728814</v>
+        <v>73.415254237288138</v>
       </c>
       <c r="I88">
         <v>53</v>
@@ -4558,20 +6108,24 @@
       <c r="K88">
         <v>4</v>
       </c>
-      <c r="L88">
-        <v>0.5555555555555556</v>
+      <c r="L88" s="8">
+        <v>0.55555555555555558</v>
       </c>
       <c r="M88">
         <v>12</v>
       </c>
-      <c r="N88">
-        <v>0.005840395323810427</v>
+      <c r="N88" s="8">
+        <v>5.8403953238104272E-3</v>
       </c>
       <c r="O88">
         <v>50</v>
       </c>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="P88" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4605,20 +6159,24 @@
       <c r="K89">
         <v>3</v>
       </c>
-      <c r="L89">
-        <v>0.8421052631578947</v>
+      <c r="L89" s="8">
+        <v>0.84210526315789469</v>
       </c>
       <c r="M89">
         <v>5</v>
       </c>
-      <c r="N89">
-        <v>0.04290720563251971</v>
+      <c r="N89" s="8">
+        <v>4.2907205632519707E-2</v>
       </c>
       <c r="O89">
         <v>44</v>
       </c>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="P89" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4652,20 +6210,24 @@
       <c r="K90">
         <v>1</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="8">
         <v>1</v>
       </c>
       <c r="M90">
         <v>1</v>
       </c>
-      <c r="N90">
-        <v>0.3811258656093635</v>
+      <c r="N90" s="8">
+        <v>0.38112586560936351</v>
       </c>
       <c r="O90">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="P90" t="str">
+        <f t="shared" si="2"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4688,7 +6250,7 @@
         <v>44</v>
       </c>
       <c r="H91">
-        <v>82.06034482758621</v>
+        <v>82.060344827586206</v>
       </c>
       <c r="I91">
         <v>42</v>
@@ -4699,20 +6261,24 @@
       <c r="K91">
         <v>6</v>
       </c>
-      <c r="L91">
-        <v>0.5555555555555556</v>
+      <c r="L91" s="8">
+        <v>0.55555555555555558</v>
       </c>
       <c r="M91">
         <v>12</v>
       </c>
-      <c r="N91">
-        <v>0.02017659314666432</v>
+      <c r="N91" s="8">
+        <v>2.0176593146664319E-2</v>
       </c>
       <c r="O91">
         <v>47</v>
       </c>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="P91" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4746,20 +6312,24 @@
       <c r="K92">
         <v>3</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="8">
         <v>1</v>
       </c>
       <c r="M92">
         <v>1</v>
       </c>
-      <c r="N92">
-        <v>0.3429954298429789</v>
+      <c r="N92" s="8">
+        <v>0.34299542984297893</v>
       </c>
       <c r="O92">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="P92" t="str">
+        <f t="shared" si="2"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4782,7 +6352,7 @@
         <v>80</v>
       </c>
       <c r="H93">
-        <v>49.22033898305084</v>
+        <v>49.220338983050837</v>
       </c>
       <c r="I93">
         <v>80</v>
@@ -4793,20 +6363,24 @@
       <c r="K93">
         <v>4</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="8">
         <v>0</v>
       </c>
       <c r="M93">
         <v>23</v>
       </c>
-      <c r="N93">
-        <v>-0.2206936400776719</v>
+      <c r="N93" s="8">
+        <v>-0.22069364007767189</v>
       </c>
       <c r="O93">
         <v>71</v>
       </c>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="P93" t="str">
+        <f t="shared" si="2"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4829,7 +6403,7 @@
         <v>9</v>
       </c>
       <c r="H94">
-        <v>116.3728813559322</v>
+        <v>116.37288135593219</v>
       </c>
       <c r="I94">
         <v>9</v>
@@ -4840,20 +6414,24 @@
       <c r="K94">
         <v>4</v>
       </c>
-      <c r="L94">
-        <v>0.9444444444444444</v>
+      <c r="L94" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M94">
         <v>2</v>
       </c>
-      <c r="N94">
-        <v>0.4341016305970914</v>
+      <c r="N94" s="8">
+        <v>0.43410163059709139</v>
       </c>
       <c r="O94">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="P94" t="str">
+        <f t="shared" si="2"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4887,20 +6465,24 @@
       <c r="K95">
         <v>1</v>
       </c>
-      <c r="L95">
-        <v>0.2777777777777778</v>
+      <c r="L95" s="8">
+        <v>0.27777777777777779</v>
       </c>
       <c r="M95">
         <v>17</v>
       </c>
-      <c r="N95">
-        <v>-0.03203762089656402</v>
+      <c r="N95" s="8">
+        <v>-3.203762089656402E-2</v>
       </c>
       <c r="O95">
         <v>53</v>
       </c>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="P95" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4934,20 +6516,24 @@
       <c r="K96">
         <v>3</v>
       </c>
-      <c r="L96">
-        <v>0.9444444444444444</v>
+      <c r="L96" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M96">
         <v>2</v>
       </c>
-      <c r="N96">
-        <v>0.3721599704751312</v>
+      <c r="N96" s="8">
+        <v>0.37215997047513122</v>
       </c>
       <c r="O96">
         <v>17</v>
       </c>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="P96" t="str">
+        <f t="shared" si="2"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4970,7 +6556,7 @@
         <v>46</v>
       </c>
       <c r="H97">
-        <v>78.80508474576271</v>
+        <v>78.805084745762713</v>
       </c>
       <c r="I97">
         <v>46</v>
@@ -4981,20 +6567,24 @@
       <c r="K97">
         <v>4</v>
       </c>
-      <c r="L97">
-        <v>0.3333333333333333</v>
+      <c r="L97" s="8">
+        <v>0.33333333333333331</v>
       </c>
       <c r="M97">
         <v>16</v>
       </c>
-      <c r="N97">
-        <v>-0.03338443692192047</v>
+      <c r="N97" s="8">
+        <v>-3.3384436921920467E-2</v>
       </c>
       <c r="O97">
         <v>54</v>
       </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="P97" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5017,7 +6607,7 @@
         <v>52</v>
       </c>
       <c r="H98">
-        <v>74.29411764705883</v>
+        <v>74.294117647058826</v>
       </c>
       <c r="I98">
         <v>52</v>
@@ -5028,20 +6618,24 @@
       <c r="K98">
         <v>3</v>
       </c>
-      <c r="L98">
-        <v>0.2777777777777778</v>
+      <c r="L98" s="8">
+        <v>0.27777777777777779</v>
       </c>
       <c r="M98">
         <v>17</v>
       </c>
-      <c r="N98">
-        <v>-0.08364920287538019</v>
+      <c r="N98" s="8">
+        <v>-8.3649202875380191E-2</v>
       </c>
       <c r="O98">
         <v>61</v>
       </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="P98" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5064,7 +6658,7 @@
         <v>85</v>
       </c>
       <c r="H99">
-        <v>45.57851239669422</v>
+        <v>45.578512396694222</v>
       </c>
       <c r="I99">
         <v>85</v>
@@ -5075,20 +6669,24 @@
       <c r="K99">
         <v>1</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="8">
         <v>0</v>
       </c>
       <c r="M99">
         <v>23</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="8">
         <v>-0.3317280975637058</v>
       </c>
       <c r="O99">
         <v>80</v>
       </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="P99" t="str">
+        <f t="shared" si="2"/>
+        <v>BOTTOM</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5111,7 +6709,7 @@
         <v>56</v>
       </c>
       <c r="H100">
-        <v>73.27118644067797</v>
+        <v>73.271186440677965</v>
       </c>
       <c r="I100">
         <v>54</v>
@@ -5122,20 +6720,24 @@
       <c r="K100">
         <v>4</v>
       </c>
-      <c r="L100">
-        <v>0.7894736842105263</v>
+      <c r="L100" s="8">
+        <v>0.78947368421052633</v>
       </c>
       <c r="M100">
         <v>7</v>
       </c>
-      <c r="N100">
-        <v>0.0111664625017524</v>
+      <c r="N100" s="8">
+        <v>1.11664625017524E-2</v>
       </c>
       <c r="O100">
         <v>49</v>
       </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="P100" t="str">
+        <f t="shared" si="2"/>
+        <v>MIDDLE</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5158,7 +6760,7 @@
         <v>35</v>
       </c>
       <c r="H101">
-        <v>87.39495798319328</v>
+        <v>87.394957983193279</v>
       </c>
       <c r="I101">
         <v>35</v>
@@ -5169,20 +6771,25 @@
       <c r="K101">
         <v>3</v>
       </c>
-      <c r="L101">
-        <v>0.9444444444444444</v>
+      <c r="L101" s="8">
+        <v>0.94444444444444442</v>
       </c>
       <c r="M101">
         <v>2</v>
       </c>
-      <c r="N101">
-        <v>0.3158981152508147</v>
+      <c r="N101" s="8">
+        <v>0.31589811525081468</v>
       </c>
       <c r="O101">
         <v>22</v>
       </c>
+      <c r="P101" t="str">
+        <f t="shared" si="2"/>
+        <v>TOP</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>